--- a/予定.xlsx
+++ b/予定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2247045\Desktop\ALIVE\ALIVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDA6B48-9A2E-413C-8D67-339A157DFCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0D8F60-D7D1-4ACB-869C-4067202088AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{0685BB3A-7E46-478B-AD81-A5DFB26CD974}"/>
+    <workbookView xWindow="9690" yWindow="-13845" windowWidth="23625" windowHeight="11295" xr2:uid="{0685BB3A-7E46-478B-AD81-A5DFB26CD974}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1502,6 +1502,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1525,21 +1540,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1862,7 +1862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A49AA46-ED61-4438-9CF1-A505313D5A4C}">
   <dimension ref="B1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2015,10 +2015,10 @@
       <c r="J9" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="96" t="s">
+      <c r="K9" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="97"/>
+      <c r="L9" s="102"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" s="64">
@@ -2045,10 +2045,10 @@
       <c r="J10" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="98" t="s">
+      <c r="K10" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="99"/>
+      <c r="L10" s="104"/>
     </row>
     <row r="11" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="29"/>
@@ -2061,10 +2061,10 @@
       <c r="J11" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="100" t="s">
+      <c r="K11" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="101"/>
+      <c r="L11" s="106"/>
     </row>
     <row r="12" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="65"/>
@@ -2077,10 +2077,10 @@
       <c r="J12" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="102" t="s">
+      <c r="K12" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="103"/>
+      <c r="L12" s="108"/>
     </row>
     <row r="13" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="66">
@@ -2105,7 +2105,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="16"/>
-      <c r="J14" s="108" t="s">
+      <c r="J14" s="97" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2117,13 +2117,13 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
-      <c r="J15" s="104" t="s">
+      <c r="J15" s="96" t="s">
         <v>19</v>
       </c>
       <c r="K15" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="105" t="s">
+      <c r="L15" s="98" t="s">
         <v>43</v>
       </c>
       <c r="M15" s="47" t="s">
@@ -2131,13 +2131,13 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J16" s="105" t="s">
+      <c r="J16" s="98" t="s">
         <v>21</v>
       </c>
       <c r="K16" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="107"/>
+      <c r="L16" s="100"/>
       <c r="M16" s="3" t="s">
         <v>44</v>
       </c>
@@ -2146,11 +2146,11 @@
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="106"/>
+      <c r="J17" s="99"/>
       <c r="K17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="104" t="s">
+      <c r="L17" s="96" t="s">
         <v>46</v>
       </c>
       <c r="M17" s="86" t="s">
@@ -2179,7 +2179,7 @@
       <c r="H18" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="106"/>
+      <c r="J18" s="99"/>
       <c r="K18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="H19" s="39">
         <v>45234</v>
       </c>
-      <c r="J19" s="107"/>
+      <c r="J19" s="100"/>
       <c r="K19" s="3" t="s">
         <v>25</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="35"/>
-      <c r="J20" s="105" t="s">
+      <c r="J20" s="98" t="s">
         <v>26</v>
       </c>
       <c r="K20" s="47" t="s">
@@ -2228,7 +2228,7 @@
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="69"/>
-      <c r="J21" s="106"/>
+      <c r="J21" s="99"/>
       <c r="K21" s="2" t="s">
         <v>28</v>
       </c>
@@ -2255,7 +2255,7 @@
       <c r="H22" s="39">
         <v>45241</v>
       </c>
-      <c r="J22" s="106"/>
+      <c r="J22" s="99"/>
       <c r="K22" s="2" t="s">
         <v>29</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="35"/>
-      <c r="J23" s="106"/>
+      <c r="J23" s="99"/>
       <c r="K23" s="87" t="s">
         <v>30</v>
       </c>
@@ -2281,7 +2281,7 @@
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="H24" s="69"/>
-      <c r="J24" s="106"/>
+      <c r="J24" s="99"/>
       <c r="K24" s="2" t="s">
         <v>31</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="H25" s="39">
         <v>45248</v>
       </c>
-      <c r="J25" s="106"/>
+      <c r="J25" s="99"/>
       <c r="K25" s="2" t="s">
         <v>32</v>
       </c>
@@ -2321,7 +2321,7 @@
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="35"/>
-      <c r="J26" s="107"/>
+      <c r="J26" s="100"/>
       <c r="K26" s="3" t="s">
         <v>33</v>
       </c>
@@ -2334,7 +2334,7 @@
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="69"/>
-      <c r="J27" s="105" t="s">
+      <c r="J27" s="98" t="s">
         <v>34</v>
       </c>
       <c r="K27" s="47" t="s">
@@ -2363,7 +2363,7 @@
       <c r="H28" s="74">
         <v>45255</v>
       </c>
-      <c r="J28" s="106"/>
+      <c r="J28" s="99"/>
       <c r="K28" s="2" t="s">
         <v>36</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
       <c r="H29" s="43"/>
-      <c r="J29" s="107"/>
+      <c r="J29" s="100"/>
       <c r="K29" s="3" t="s">
         <v>37</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="75"/>
-      <c r="J30" s="105" t="s">
+      <c r="J30" s="98" t="s">
         <v>38</v>
       </c>
       <c r="K30" s="95" t="s">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="G31" s="54"/>
       <c r="H31" s="68"/>
-      <c r="J31" s="106"/>
+      <c r="J31" s="99"/>
       <c r="K31" s="94" t="s">
         <v>40</v>
       </c>
@@ -2427,7 +2427,7 @@
       <c r="F32" s="42"/>
       <c r="G32" s="13"/>
       <c r="H32" s="16"/>
-      <c r="J32" s="107"/>
+      <c r="J32" s="100"/>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
